--- a/Synthetic Dataset_MCGDM_HFLTS_T2.xlsx
+++ b/Synthetic Dataset_MCGDM_HFLTS_T2.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taniya\Work\Supplier\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="76">
   <si>
     <t>A1</t>
   </si>
@@ -159,17 +164,98 @@
     <t>{M, G}</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>MG</t>
+    <t>FOR COMPUTATIONS</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>IT2 ENVELOPE FROM IT2FSs</t>
+  </si>
+  <si>
+    <t>[0.4166,0.6665,0.8331,1,0.5832,0.6665,0.8331,0.9146,0.8]</t>
+  </si>
+  <si>
+    <t>[0.1667,0.6665,0.8190,1,0.333,0.6665,0.8190,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.1111,0.6665,1,0,0.111,0.6665,0.9146,0.8]</t>
+  </si>
+  <si>
+    <t>[0.1667,0.6767,0.9573,1,0.3333,0.6767,0.9573,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.0416,0.0937,0.5832,0,0.0416,0.0937,0.4166,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.0416,0.25,0.5832,0,0.0416,0.25,0.4166,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.4166,0.5832,1,0.0833,0.4166,0.5832,0.9146,0.8]</t>
+  </si>
+  <si>
+    <t>[0.4166,0.9054,0.9573,1,0.5832,0.9054,0.9573,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.0416,0.3228,0.8331,0,0.0416,0.3228,0.6665,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.1805,0.3333,0.8331,0,0.1805,0.3333,0.6665,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.3313,0.9573,1,0.0833,0.3313,0.9573,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.25,0.4999,0.8331,0.0833,0.25,0.4999,0.6665,0.8]</t>
+  </si>
+  <si>
+    <t>[0.4166,0.7498,0.9573,1,0.5832,0.7498,0.9573,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.3333,0.8881,1,0.0833,0.3333,0.8881,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0.1667,0.4999,0.7498,1,0.3333,0.4999,0.7498,0.9146,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0.1667,0.3333,0.5832,0.0833,0.1667,0.3333,0.4166,0.8]</t>
+  </si>
+  <si>
+    <t>[0.1667,0.4166,0.5832,0.8331,0.3333,0.4166,0.5832,0.6665,0.8]</t>
+  </si>
+  <si>
+    <t>[0.6665,0.9146,1,1,0.8331,0.9146,1,1,0.8]</t>
+  </si>
+  <si>
+    <t>[0,0,0.0833,0.3333,0,0,0.0833,0.1667,0.8]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +314,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +362,28 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,15 +394,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,13 +427,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -315,6 +455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -621,7 +764,10 @@
     <col min="5" max="6" width="18.28515625" style="3" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="3"/>
     <col min="9" max="13" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="39.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1392,19 +1538,17 @@
         <v>14</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H29" s="7">
         <v>1</v>
       </c>
@@ -1417,11 +1561,254 @@
       <c r="K29" s="7">
         <v>4</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="3">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>6</v>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>3</v>
+      </c>
+      <c r="L30" s="11">
+        <v>4</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>0</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="E34" s="10">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <f>(0.3333*0.7498)+(0.6667*0.9573)</f>
+        <v>0.88814024999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1432,12 +1819,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
